--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,214 +40,220 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>rice</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>pie</t>
   </si>
   <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>wife</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>coffee</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>make</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>positive</t>
@@ -608,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4263565891472868</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.404040404040404</v>
+        <v>0.3565891472868217</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9247311827956989</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1837837837837838</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +833,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8730650154798761</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L6">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="M6">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -879,13 +885,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8260869565217391</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +911,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7954545454545454</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -923,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -931,13 +937,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7792207792207793</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L10">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -949,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -957,13 +963,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7445887445887446</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L11">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -975,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -983,13 +989,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6983050847457627</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L12">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1001,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1009,13 +1015,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6575342465753424</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1027,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1035,13 +1041,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6492776886035313</v>
+        <v>0.6508828250401284</v>
       </c>
       <c r="L14">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="M14">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1053,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1061,13 +1067,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.647887323943662</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1079,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1087,13 +1093,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6461538461538462</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1105,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1113,13 +1119,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.640625</v>
+        <v>0.609375</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1131,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1139,13 +1145,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6326530612244898</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1157,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1165,13 +1171,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6323529411764706</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1183,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1191,13 +1197,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5865384615384616</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1209,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1217,13 +1223,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5692307692307692</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1235,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1243,13 +1249,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5662650602409639</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L22">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1261,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1269,13 +1275,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.562874251497006</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="L23">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="M23">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1287,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1295,13 +1301,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5600000000000001</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L24">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M24">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1313,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1321,13 +1327,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5428571428571428</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1339,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1347,13 +1353,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5299145299145299</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L26">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1365,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1373,13 +1379,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5263157894736842</v>
+        <v>0.5568862275449101</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1391,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1399,13 +1405,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5263157894736842</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1417,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1425,13 +1431,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5238095238095238</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1451,25 +1457,25 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.5081967213114754</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L30">
+        <v>32</v>
+      </c>
+      <c r="M30">
+        <v>32</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>31</v>
-      </c>
-      <c r="M30">
-        <v>31</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>30</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1477,13 +1483,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1495,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1503,13 +1509,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.4938271604938271</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1521,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1529,13 +1535,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.49</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1547,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1555,13 +1561,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.4285714285714285</v>
+        <v>0.44</v>
       </c>
       <c r="L34">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M34">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1573,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1581,13 +1587,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.4156626506024096</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L35">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M35">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1599,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1607,13 +1613,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.3861386138613861</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1625,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1633,13 +1639,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.3813229571984436</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L37">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1651,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>159</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1659,13 +1665,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.3774509803921569</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L38">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1677,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>254</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1685,13 +1691,13 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.3333333333333333</v>
+        <v>0.3897058823529412</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="M39">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1703,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>74</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1711,13 +1717,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.3315068493150685</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L40">
-        <v>242</v>
+        <v>92</v>
       </c>
       <c r="M40">
-        <v>242</v>
+        <v>92</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1729,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>488</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1737,13 +1743,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.3157894736842105</v>
+        <v>0.3525179856115108</v>
       </c>
       <c r="L41">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M41">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1755,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1763,13 +1769,13 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.3153153153153153</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1781,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1789,13 +1795,13 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.3148148148148148</v>
+        <v>0.3410958904109589</v>
       </c>
       <c r="L43">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="M43">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1807,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>74</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1815,13 +1821,13 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.302158273381295</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L44">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1833,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1841,13 +1847,13 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.2966507177033493</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L45">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1859,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>147</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1867,13 +1873,13 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.2781456953642384</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L46">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1885,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1893,13 +1899,13 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.2626480086114101</v>
+        <v>0.3014354066985646</v>
       </c>
       <c r="L47">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="M47">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1911,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>685</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1919,13 +1925,13 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.2291390728476821</v>
+        <v>0.2980132450331126</v>
       </c>
       <c r="L48">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="M48">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1937,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>582</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1945,25 +1951,25 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.2225063938618926</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L49">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>608</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1971,13 +1977,13 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.2080536912751678</v>
+        <v>0.2669537136706135</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="M50">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1989,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>118</v>
+        <v>681</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1997,13 +2003,13 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1974921630094044</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L51">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="M51">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2015,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>256</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2023,13 +2029,13 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.1918819188191882</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L52">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M52">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2041,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>219</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2049,13 +2055,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.1890243902439024</v>
+        <v>0.2163009404388715</v>
       </c>
       <c r="L53">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="M53">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2067,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>133</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2075,13 +2081,13 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.183288409703504</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L54">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2093,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>303</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2101,13 +2107,13 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.1576354679802956</v>
+        <v>0.2071611253196931</v>
       </c>
       <c r="L55">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="M55">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>171</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2127,13 +2133,13 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.1551312649164678</v>
+        <v>0.2</v>
       </c>
       <c r="L56">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="M56">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2145,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>354</v>
+        <v>604</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2153,25 +2159,25 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.1535087719298246</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="L57">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M57">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>386</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2179,25 +2185,25 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1517241379310345</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L58">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="M58">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="N58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>246</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2205,13 +2211,13 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.1477272727272727</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="L59">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="M59">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2223,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>375</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2231,13 +2237,13 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1296296296296296</v>
+        <v>0.1545454545454545</v>
       </c>
       <c r="L60">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="M60">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2249,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>235</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2257,13 +2263,13 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.1218487394957983</v>
+        <v>0.1503579952267303</v>
       </c>
       <c r="L61">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="M61">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2275,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>209</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2283,13 +2289,13 @@
         <v>71</v>
       </c>
       <c r="K62">
-        <v>0.1119221411192214</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="L62">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M62">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2301,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>365</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2309,25 +2315,25 @@
         <v>72</v>
       </c>
       <c r="K63">
-        <v>0.09315068493150686</v>
+        <v>0.127147766323024</v>
       </c>
       <c r="L63">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M63">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N63">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>331</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2335,13 +2341,13 @@
         <v>73</v>
       </c>
       <c r="K64">
-        <v>0.09141791044776119</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L64">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="M64">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2353,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>974</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2361,25 +2367,25 @@
         <v>74</v>
       </c>
       <c r="K65">
-        <v>0.08751793400286945</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="L65">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M65">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N65">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>636</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2387,25 +2393,25 @@
         <v>75</v>
       </c>
       <c r="K66">
-        <v>0.07195571955719557</v>
+        <v>0.09158878504672897</v>
       </c>
       <c r="L66">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="M66">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>503</v>
+        <v>972</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2413,25 +2419,25 @@
         <v>76</v>
       </c>
       <c r="K67">
-        <v>0.05622837370242215</v>
+        <v>0.08477011494252873</v>
       </c>
       <c r="L67">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M67">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="N67">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O67">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1091</v>
+        <v>637</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2439,25 +2445,77 @@
         <v>77</v>
       </c>
       <c r="K68">
-        <v>0.0558766859344894</v>
+        <v>0.06963249516441006</v>
       </c>
       <c r="L68">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M68">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N68">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O68">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>490</v>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K69">
+        <v>0.06284658040665435</v>
+      </c>
+      <c r="L69">
+        <v>34</v>
+      </c>
+      <c r="M69">
+        <v>35</v>
+      </c>
+      <c r="N69">
+        <v>0.97</v>
+      </c>
+      <c r="O69">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K70">
+        <v>0.05483028720626632</v>
+      </c>
+      <c r="L70">
+        <v>63</v>
+      </c>
+      <c r="M70">
+        <v>71</v>
+      </c>
+      <c r="N70">
+        <v>0.89</v>
+      </c>
+      <c r="O70">
+        <v>0.11</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
